--- a/app/xlsx-gen-go/xlsx/d_道具表(t_item).xlsx
+++ b/app/xlsx-gen-go/xlsx/d_道具表(t_item).xlsx
@@ -33,7 +33,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1">
+    <comment ref="G3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -90,12 +90,6 @@
     <t>a_base_item_id</t>
   </si>
   <si>
-    <t>c_base_operater_id</t>
-  </si>
-  <si>
-    <t>a_base_show</t>
-  </si>
-  <si>
     <t>a_base_type</t>
   </si>
   <si>
@@ -118,12 +112,6 @@
   </si>
   <si>
     <t>物品ID（-8~-1：资源类）</t>
-  </si>
-  <si>
-    <t>平台ID，默认为0</t>
-  </si>
-  <si>
-    <t>是否显示：1显示；0不显示</t>
   </si>
   <si>
     <t>物品类型
@@ -154,7 +142,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,13 +169,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -332,12 +313,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -646,148 +627,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -799,11 +780,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1127,29 +1108,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29" style="1" customWidth="1"/>
-    <col min="8" max="8" width="42.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="41.75" style="1" customWidth="1"/>
-    <col min="10" max="12" width="25.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.25" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="48.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.75" style="1" customWidth="1"/>
+    <col min="8" max="10" width="25.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,179 +1150,134 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:12">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:9">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>-8</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
+      <c r="D4" s="4">
+        <v>1001</v>
+      </c>
       <c r="E4" s="1">
+        <v>-8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1009</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
-        <v>1001</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-8</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1009</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="3:3">
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" customHeight="1" spans="3:3">
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" customHeight="1" spans="3:10">
-      <c r="C7" s="3"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" customHeight="1" spans="3:10">
-      <c r="C8" s="3"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" customHeight="1" spans="3:10">
-      <c r="C9" s="3"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:10">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:10">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:10">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+    </row>
+    <row r="7" customHeight="1" spans="8:8">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" customHeight="1" spans="8:8">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" customHeight="1" spans="8:8">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:8">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:8">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:8">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:8">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="17" customHeight="1" spans="1:1">
       <c r="A17" s="5"/>
